--- a/BOM - GenesisV2/GenesisV2DaughterBOM-Rev3.xlsx
+++ b/BOM - GenesisV2/GenesisV2DaughterBOM-Rev3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boniface\Documents\GitHub\PCB\Projects\PREP400\BOM - GenesisV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595981C-1001-4BFE-B543-4C9EDF51869C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B23BC-B40F-4E76-A483-089B30467836}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="4548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,9 +746,6 @@
     <t>D15, D16, D17, D18, D27, D28</t>
   </si>
   <si>
-    <t>(R57, R58, R74, R75, R113, R114)*</t>
-  </si>
-  <si>
     <t>R11, R12, R55, R56, R73, R76</t>
   </si>
   <si>
@@ -888,6 +885,9 @@
   </si>
   <si>
     <t>Rev. 3</t>
+  </si>
+  <si>
+    <t>(R13, R14, R57, R58, R74, R75)*</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1860,8 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="8" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1888,48 +1888,48 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="11">
         <v>10000387</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>167</v>
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="16">
         <v>40</v>
@@ -1989,7 +1989,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="24">
         <v>44</v>
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="16">
         <v>4</v>
@@ -2066,7 +2066,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="24">
         <v>4</v>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="16">
         <v>4</v>
@@ -2114,7 +2114,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="24">
         <v>4</v>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="16">
         <v>4</v>
@@ -2160,7 +2160,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="24">
         <v>4</v>
@@ -2182,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="16">
         <v>4</v>
@@ -2206,7 +2206,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24">
         <v>5</v>
@@ -2254,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="16">
         <v>36</v>
@@ -2278,7 +2278,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" s="24">
         <v>41</v>
@@ -2364,7 +2364,7 @@
         <v>155</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>14</v>
@@ -2412,7 +2412,7 @@
         <v>156</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>129</v>
@@ -2488,7 +2488,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>130</v>
@@ -2522,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="16">
         <v>4</v>
@@ -2534,7 +2534,7 @@
         <v>158</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>131</v>
@@ -2546,7 +2546,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="24">
         <v>4</v>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D34" s="16">
         <v>8</v>
@@ -2622,16 +2622,16 @@
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="5"/>
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="16">
         <v>4</v>
@@ -2688,7 +2688,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39" s="24">
         <v>4</v>
@@ -2882,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D47" s="16">
         <v>4</v>
@@ -2908,7 +2908,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" s="24">
         <v>4</v>
@@ -3014,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>32</v>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" s="16">
         <v>9</v>
@@ -3262,7 +3262,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D62" s="24">
         <v>4</v>
@@ -3378,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D67" s="16">
         <v>6</v>
@@ -3402,7 +3402,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="24" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="D68" s="24">
         <v>6</v>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H69" s="20" t="s">
         <v>159</v>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="16">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H71" s="20" t="s">
         <v>132</v>
@@ -3494,7 +3494,7 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D72" s="24">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>52</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>121</v>
@@ -3580,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>82</v>
